--- a/trunk/Wip/DES_DOCS/UseCaseList.xlsx
+++ b/trunk/Wip/DES_DOCS/UseCaseList.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6720"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UseCaseList" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Customer</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve">View được plan do module AutoSchedule Gen ra </t>
+  </si>
+  <si>
+    <t>Update được thông tin để tự động điền giá cho orders</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,6 +497,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
